--- a/Števci prometa/Lokacije števcev prometa na območju MOL/lokacije.xlsx
+++ b/Števci prometa/Lokacije števcev prometa na območju MOL/lokacije.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikam\diplomska\Števci prometa\Števci prometa\Lokacije števcev prometa na območju MOL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikam\diplomska\repozitorij\diplomska\Števci prometa\Lokacije števcev prometa na območju MOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E61AF85F-168E-4D50-91AB-C934642B4976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4DEBD8-557A-44F5-8669-6B00EF533D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57860297-DBC0-49B4-9367-334693185E84}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="239">
   <si>
     <t>Y</t>
   </si>
@@ -759,6 +759,12 @@
   </si>
   <si>
     <t>Tržaška Oražnova &gt; Vič</t>
+  </si>
+  <si>
+    <t>Stolpec1</t>
+  </si>
+  <si>
+    <t>NE</t>
   </si>
 </sst>
 </file>
@@ -794,14 +800,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -835,8 +843,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{7540BBB1-A2F2-4D8F-BD1F-0BA01505EC26}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="10">
-    <queryTableFields count="9">
+  <queryTableRefresh nextId="11" unboundColumnsRight="1">
+    <queryTableFields count="10">
       <queryTableField id="1" name="Y" tableColumnId="1"/>
       <queryTableField id="2" name="X" tableColumnId="2"/>
       <queryTableField id="3" name="IDSTM" tableColumnId="3"/>
@@ -846,24 +854,28 @@
       <queryTableField id="7" name="SMERB" tableColumnId="7"/>
       <queryTableField id="8" name="TIPTETJA" tableColumnId="8"/>
       <queryTableField id="9" name="CPU" tableColumnId="9"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51BB1FF8-44A5-441D-AF3A-F40843933BEF}" name="StevnaMestaMOL" displayName="StevnaMestaMOL" ref="A1:I66" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I66" xr:uid="{51BB1FF8-44A5-441D-AF3A-F40843933BEF}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51BB1FF8-44A5-441D-AF3A-F40843933BEF}" name="StevnaMestaMOL" displayName="StevnaMestaMOL" ref="A1:J66" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J66" xr:uid="{51BB1FF8-44A5-441D-AF3A-F40843933BEF}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{215CD818-951B-4343-B82F-FDDBEB4B5DC6}" uniqueName="1" name="Y" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{E33FC27F-959D-411A-9D34-178B9C1B5C4C}" uniqueName="2" name="X" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{90A70729-83D1-4B95-9FEB-CCBF409CEF9E}" uniqueName="3" name="IDSTM" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{C6C25171-A6E1-4EAE-8108-51A8D27E06CE}" uniqueName="4" name="IME" queryTableFieldId="4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{898DAD74-6145-4B4A-8CE0-1CB23DDEFB3F}" uniqueName="5" name="IME ŠTEVNEGA MESTA" queryTableFieldId="5" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{0DB2A4EE-9CEC-4A54-9D49-CECFA3797896}" uniqueName="6" name="SMER" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{9896E9FA-5871-4FCE-A15F-29F0879E8487}" uniqueName="7" name="SMERB" queryTableFieldId="7" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{986D981A-7ADB-4B63-A3C0-E4F054E6A74F}" uniqueName="8" name="TIP ŠTETJA" queryTableFieldId="8" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{5006C616-0030-4545-9F5B-A91786E59939}" uniqueName="9" name="CPU" queryTableFieldId="9" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{C6C25171-A6E1-4EAE-8108-51A8D27E06CE}" uniqueName="4" name="IME" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{898DAD74-6145-4B4A-8CE0-1CB23DDEFB3F}" uniqueName="5" name="IME ŠTEVNEGA MESTA" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{0DB2A4EE-9CEC-4A54-9D49-CECFA3797896}" uniqueName="6" name="SMER" queryTableFieldId="6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{9896E9FA-5871-4FCE-A15F-29F0879E8487}" uniqueName="7" name="SMERB" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{986D981A-7ADB-4B63-A3C0-E4F054E6A74F}" uniqueName="8" name="TIP ŠTETJA" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{5006C616-0030-4545-9F5B-A91786E59939}" uniqueName="9" name="CPU" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{D5CC9D53-8672-425E-8414-E050ACF83A2B}" uniqueName="10" name="Stolpec1" queryTableFieldId="10" dataDxfId="0">
+      <calculatedColumnFormula>IF(G2="ni","NE","DA")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1166,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB46D298-D448-44F3-A3CA-D79033B6F9D1}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1184,7 +1196,7 @@
     <col min="9" max="9" width="6.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1212,8 +1224,11 @@
       <c r="I1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>460907.84</v>
       </c>
@@ -1223,26 +1238,30 @@
       <c r="C2">
         <v>1001</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>187</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="str">
+        <f t="shared" ref="J2:J33" si="0">IF(G2="ni","NE","DA")</f>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>461060.61</v>
       </c>
@@ -1252,26 +1271,30 @@
       <c r="C3">
         <v>1002</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>462417.15</v>
       </c>
@@ -1281,26 +1304,30 @@
       <c r="C4">
         <v>1003</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>462404.01</v>
       </c>
@@ -1310,26 +1337,30 @@
       <c r="C5">
         <v>1004</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>461288.1</v>
       </c>
@@ -1339,26 +1370,30 @@
       <c r="C6">
         <v>1005</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>192</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>193</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>459174.63</v>
       </c>
@@ -1368,26 +1403,30 @@
       <c r="C7">
         <v>1006</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>194</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>195</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>461458.18</v>
       </c>
@@ -1397,26 +1436,30 @@
       <c r="C8">
         <v>1007</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>461481.7</v>
       </c>
@@ -1426,26 +1469,30 @@
       <c r="C9">
         <v>1008</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>459363.9</v>
       </c>
@@ -1455,26 +1502,30 @@
       <c r="C10">
         <v>1009</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>459606.59</v>
       </c>
@@ -1484,26 +1535,30 @@
       <c r="C11">
         <v>1010</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>458395.04</v>
       </c>
@@ -1513,26 +1568,30 @@
       <c r="C12">
         <v>1011</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>458733.06</v>
       </c>
@@ -1542,26 +1601,30 @@
       <c r="C13">
         <v>1012</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>198</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>464134.64</v>
       </c>
@@ -1571,26 +1634,30 @@
       <c r="C14">
         <v>1013</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>464019.93</v>
       </c>
@@ -1600,26 +1667,30 @@
       <c r="C15">
         <v>1014</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>464841.21</v>
       </c>
@@ -1629,26 +1700,30 @@
       <c r="C16">
         <v>1015</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>465135.7</v>
       </c>
@@ -1658,26 +1733,30 @@
       <c r="C17">
         <v>1016</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>465781.3</v>
       </c>
@@ -1687,26 +1766,30 @@
       <c r="C18">
         <v>1017</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>463252.37</v>
       </c>
@@ -1716,26 +1799,30 @@
       <c r="C19">
         <v>1018</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>463742.11</v>
       </c>
@@ -1745,26 +1832,30 @@
       <c r="C20">
         <v>1019</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>463794.76</v>
       </c>
@@ -1774,26 +1865,30 @@
       <c r="C21">
         <v>1020</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>199</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>458785.37</v>
       </c>
@@ -1803,26 +1898,30 @@
       <c r="C22">
         <v>1021</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>200</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>459138</v>
       </c>
@@ -1832,26 +1931,30 @@
       <c r="C23">
         <v>1022</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>201</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>7</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>457918.5</v>
       </c>
@@ -1861,26 +1964,30 @@
       <c r="C24">
         <v>1023</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" t="s">
         <v>202</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>203</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>462753.3</v>
       </c>
@@ -1890,26 +1997,30 @@
       <c r="C25">
         <v>1024</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>461435.4</v>
       </c>
@@ -1919,26 +2030,30 @@
       <c r="C26">
         <v>1025</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>204</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
         <v>205</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>461436.15999999997</v>
       </c>
@@ -1948,26 +2063,30 @@
       <c r="C27">
         <v>1026</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" t="s">
         <v>206</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>461194.58</v>
       </c>
@@ -1977,26 +2096,30 @@
       <c r="C28">
         <v>1027</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>461340.98</v>
       </c>
@@ -2006,26 +2129,30 @@
       <c r="C29">
         <v>1028</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>463042.12</v>
       </c>
@@ -2035,26 +2162,30 @@
       <c r="C30">
         <v>1029</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" t="s">
         <v>207</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>208</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>468713.97</v>
       </c>
@@ -2064,26 +2195,30 @@
       <c r="C31">
         <v>1030</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>84</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>86</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>461997.43</v>
       </c>
@@ -2093,26 +2228,30 @@
       <c r="C32">
         <v>1031</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
         <v>89</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>462302.93</v>
       </c>
@@ -2122,26 +2261,30 @@
       <c r="C33">
         <v>1032</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>209</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>462902.79</v>
       </c>
@@ -2151,26 +2294,30 @@
       <c r="C34">
         <v>1033</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" t="s">
         <v>96</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>97</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" ref="J34:J64" si="1">IF(G34="ni","NE","DA")</f>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>464323.07</v>
       </c>
@@ -2180,26 +2327,30 @@
       <c r="C35">
         <v>1034</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>99</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" t="s">
         <v>100</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>101</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>461906.02</v>
       </c>
@@ -2209,26 +2360,30 @@
       <c r="C36">
         <v>1035</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>102</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>104</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>461921.66</v>
       </c>
@@ -2238,26 +2393,30 @@
       <c r="C37">
         <v>1036</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>107</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>460992.35</v>
       </c>
@@ -2267,26 +2426,30 @@
       <c r="C38">
         <v>1037</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>210</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" t="s">
         <v>211</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>212</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>462984.6</v>
       </c>
@@ -2296,26 +2459,30 @@
       <c r="C39">
         <v>1038</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>109</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>110</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
         <v>112</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>461868.27</v>
       </c>
@@ -2325,26 +2492,30 @@
       <c r="C40">
         <v>1039</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>113</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" t="s">
         <v>115</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
         <v>116</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>462173.31</v>
       </c>
@@ -2354,26 +2525,30 @@
       <c r="C41">
         <v>1040</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>118</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" t="s">
         <v>213</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" t="s">
         <v>214</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>459814.15</v>
       </c>
@@ -2383,26 +2558,30 @@
       <c r="C42">
         <v>1041</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>119</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>120</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" t="s">
         <v>121</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" t="s">
         <v>122</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>461335.85</v>
       </c>
@@ -2412,26 +2591,30 @@
       <c r="C43">
         <v>1042</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>123</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>215</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" t="s">
         <v>124</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" t="s">
         <v>125</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>460969.37</v>
       </c>
@@ -2441,26 +2624,30 @@
       <c r="C44">
         <v>1043</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>126</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>216</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" t="s">
         <v>127</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" t="s">
         <v>128</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>466684.22</v>
       </c>
@@ -2470,26 +2657,30 @@
       <c r="C45">
         <v>1044</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>217</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" t="s">
         <v>217</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" t="s">
         <v>217</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>467786.69</v>
       </c>
@@ -2499,26 +2690,30 @@
       <c r="C46">
         <v>1045</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>131</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" t="s">
         <v>132</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" t="s">
         <v>133</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>464411.32</v>
       </c>
@@ -2528,26 +2723,30 @@
       <c r="C47">
         <v>1046</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>134</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>135</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" t="s">
         <v>136</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>464420.08</v>
       </c>
@@ -2557,26 +2756,30 @@
       <c r="C48">
         <v>1047</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>137</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" t="s">
         <v>138</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>461603.29</v>
       </c>
@@ -2586,26 +2789,30 @@
       <c r="C49">
         <v>1048</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>218</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" t="s">
         <v>140</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>461618.19</v>
       </c>
@@ -2615,26 +2822,30 @@
       <c r="C50">
         <v>1049</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>219</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" t="s">
         <v>142</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" t="s">
         <v>7</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>461455.8</v>
       </c>
@@ -2644,26 +2855,30 @@
       <c r="C51">
         <v>1050</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>143</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>144</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" t="s">
         <v>220</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" t="s">
         <v>221</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>461902.74</v>
       </c>
@@ -2673,26 +2888,30 @@
       <c r="C52">
         <v>1051</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>145</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>222</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" t="s">
         <v>223</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" t="s">
         <v>224</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>462851.77</v>
       </c>
@@ -2702,26 +2921,30 @@
       <c r="C53">
         <v>1052</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>146</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>147</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" t="s">
         <v>225</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" t="s">
         <v>226</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>462707.97</v>
       </c>
@@ -2731,26 +2954,30 @@
       <c r="C54">
         <v>1053</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>148</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>227</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" t="s">
         <v>149</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" t="s">
         <v>150</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>462056.95</v>
       </c>
@@ -2760,26 +2987,30 @@
       <c r="C55">
         <v>1054</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>151</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>228</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" t="s">
         <v>229</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" t="s">
         <v>230</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>461551.99</v>
       </c>
@@ -2789,26 +3020,30 @@
       <c r="C56">
         <v>1055</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>231</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" t="s">
         <v>232</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" t="s">
         <v>7</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>461619.43</v>
       </c>
@@ -2818,26 +3053,30 @@
       <c r="C57">
         <v>1056</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>153</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>154</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" t="s">
         <v>233</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" t="s">
         <v>7</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="1"/>
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>472989.82</v>
       </c>
@@ -2847,26 +3086,30 @@
       <c r="C58">
         <v>1057</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>155</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>156</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" t="s">
         <v>157</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" t="s">
         <v>158</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>466087.31</v>
       </c>
@@ -2876,26 +3119,30 @@
       <c r="C59">
         <v>1058</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>159</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>160</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" t="s">
         <v>161</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" t="s">
         <v>162</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>457977.07</v>
       </c>
@@ -2905,26 +3152,30 @@
       <c r="C60">
         <v>1059</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>163</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>164</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" t="s">
         <v>165</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" t="s">
         <v>166</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>460116.12</v>
       </c>
@@ -2934,26 +3185,30 @@
       <c r="C61">
         <v>1060</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>168</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" t="s">
         <v>169</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" t="s">
         <v>170</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>457801.19</v>
       </c>
@@ -2963,26 +3218,30 @@
       <c r="C62">
         <v>1061</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>171</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>172</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" t="s">
         <v>234</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" t="s">
         <v>235</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>462103.13</v>
       </c>
@@ -2992,26 +3251,30 @@
       <c r="C63">
         <v>1062</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>173</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>174</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" t="s">
         <v>175</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" t="s">
         <v>176</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>8</v>
+      </c>
+      <c r="I63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>466641.17</v>
       </c>
@@ -3021,26 +3284,30 @@
       <c r="C64">
         <v>1063</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>177</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>178</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" t="s">
         <v>178</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" t="s">
         <v>178</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="1"/>
+        <v>DA</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>460765.9</v>
       </c>
@@ -3050,26 +3317,29 @@
       <c r="C65">
         <v>1064</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>179</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>236</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" t="s">
         <v>180</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>460770.87</v>
       </c>
@@ -3079,23 +3349,26 @@
       <c r="C66">
         <v>1065</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>181</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>182</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" t="s">
         <v>183</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>9</v>
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/Števci prometa/Lokacije števcev prometa na območju MOL/lokacije.xlsx
+++ b/Števci prometa/Lokacije števcev prometa na območju MOL/lokacije.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikam\diplomska\repozitorij\diplomska\Števci prometa\Lokacije števcev prometa na območju MOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4DEBD8-557A-44F5-8669-6B00EF533D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB3E568-9A5A-484F-B87B-048F8C975C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{57860297-DBC0-49B4-9367-334693185E84}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="List1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">StevnaMestaMOL!$A$1:$I$66</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">StevnaMestaMOL!$A$1:$I$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="185">
   <si>
     <t>Y</t>
   </si>
@@ -227,15 +227,6 @@
     <t>Galjevica &gt; Peruzzijeva</t>
   </si>
   <si>
-    <t>013 MOLJurckRud</t>
-  </si>
-  <si>
-    <t>Ulica Milke Kerinove &gt; rondo Leclerc</t>
-  </si>
-  <si>
-    <t>Rondo Leclerc &gt; Ulica Milke Kerinove</t>
-  </si>
-  <si>
     <t>014aMOLTrz Vic</t>
   </si>
   <si>
@@ -254,18 +245,6 @@
     <t>Pot za Brdom Kin. Društvo &lt;obe smeri&gt;</t>
   </si>
   <si>
-    <t>016 MOLDunSMost</t>
-  </si>
-  <si>
-    <t>Dunajska Sava &lt;obe smeri&gt;</t>
-  </si>
-  <si>
-    <t>Obvozna cesta &gt; Cesta v Gameljne</t>
-  </si>
-  <si>
-    <t>Cesta v Gameljne &gt; Obvozna cesta</t>
-  </si>
-  <si>
     <t>017aMOLSloSumi</t>
   </si>
   <si>
@@ -293,12 +272,6 @@
     <t>Tivolska &gt; Ruska</t>
   </si>
   <si>
-    <t>019 MOLPolRosk</t>
-  </si>
-  <si>
-    <t>Poljanska Kasarna &lt;obe smeri&gt;</t>
-  </si>
-  <si>
     <t>020 MOLZalSilo</t>
   </si>
   <si>
@@ -311,39 +284,6 @@
     <t>Ulica Minke Bobnar &gt; Klemenova</t>
   </si>
   <si>
-    <t>021 MOLCMetTrg</t>
-  </si>
-  <si>
-    <t>Vodnikov  trg Tržnica &lt;obe smeri&gt;</t>
-  </si>
-  <si>
-    <t>Kopitarjeva &gt; Ciril Metodov trg</t>
-  </si>
-  <si>
-    <t>Ciril Metodov trg &gt; Kopitarjeva</t>
-  </si>
-  <si>
-    <t>022 MOLPoljan Z - odstranjen</t>
-  </si>
-  <si>
-    <t>Strossmayerjeva &gt; Kopitarjeva</t>
-  </si>
-  <si>
-    <t>Kopitarjeva &gt; Strossmayarjeva</t>
-  </si>
-  <si>
-    <t>023 MOLSmarZmaj</t>
-  </si>
-  <si>
-    <t>Šmartinska Zmaj &lt;obe smeri&gt;</t>
-  </si>
-  <si>
-    <t>Jenkova &gt; Bolgarska</t>
-  </si>
-  <si>
-    <t>Bolgarska &gt; Jenkova</t>
-  </si>
-  <si>
     <t>024 MOLKajuh J</t>
   </si>
   <si>
@@ -374,9 +314,6 @@
     <t>Livarska &gt; Trstenjakova (smer Sever)</t>
   </si>
   <si>
-    <t>026 MOLErjPodv</t>
-  </si>
-  <si>
     <t>027 MOLHradGolo</t>
   </si>
   <si>
@@ -389,45 +326,12 @@
     <t>Dolenjska cesta &gt; Poljanska cesta</t>
   </si>
   <si>
-    <t>028 MOLHladLiva</t>
-  </si>
-  <si>
-    <t>Hladnikova Ljubljanica &lt;obe smeri&gt;</t>
-  </si>
-  <si>
-    <t>Opekarska &gt; Ižanska</t>
-  </si>
-  <si>
-    <t>Ižanska &gt; Opekarska</t>
-  </si>
-  <si>
     <t>029 MOLIzanskAC</t>
   </si>
   <si>
     <t>Ižanska 154 &lt;obe smeri&gt;</t>
   </si>
   <si>
-    <t>030 MOLCvMlogPo</t>
-  </si>
-  <si>
-    <t>Cesta v Mestni log Pošta &lt;obe smeri&gt;</t>
-  </si>
-  <si>
-    <t>Tbilisijska &gt; Koprska</t>
-  </si>
-  <si>
-    <t>Koprska &gt; Tbilisijska</t>
-  </si>
-  <si>
-    <t>031 MOLObvKlece</t>
-  </si>
-  <si>
-    <t>Ulica Bratov Komel &gt; Dunajska</t>
-  </si>
-  <si>
-    <t>Dunajska &gt; Ulica bratov Komel</t>
-  </si>
-  <si>
     <t>032 MOLAvsKlece</t>
   </si>
   <si>
@@ -467,18 +371,6 @@
     <t>Toplarniška &gt; Letališka</t>
   </si>
   <si>
-    <t>036aMOLSloNeb</t>
-  </si>
-  <si>
-    <t>Stefanova &gt; Cankarjeva</t>
-  </si>
-  <si>
-    <t>036bMOLSloNeb</t>
-  </si>
-  <si>
-    <t>Cankarjeva &gt; Stefanova</t>
-  </si>
-  <si>
     <t>037 MOLVerPlin</t>
   </si>
   <si>
@@ -494,18 +386,6 @@
     <t>Vojkova Nove Stožice &lt;obe smeri&gt;</t>
   </si>
   <si>
-    <t>040 MOLJurck 29</t>
-  </si>
-  <si>
-    <t>Galjevica &gt; Baznikova</t>
-  </si>
-  <si>
-    <t>Baznikova &gt; Galjevica</t>
-  </si>
-  <si>
-    <t>041 MOLCrna vas</t>
-  </si>
-  <si>
     <t>042aMOLGospKers</t>
   </si>
   <si>
@@ -647,9 +527,6 @@
     <t>Večna pot TP Brdnikova &lt;obe smeri&gt;</t>
   </si>
   <si>
-    <t>Jurčkova Rudnik &lt;obe smeri&gt;</t>
-  </si>
-  <si>
     <t>AC priključek &gt; Tbilisijska</t>
   </si>
   <si>
@@ -671,45 +548,18 @@
     <t>Erjavčeva &gt; Gregorčičeva</t>
   </si>
   <si>
-    <t>Potočnikova &gt; Kapusova</t>
-  </si>
-  <si>
-    <t>Kapusova &gt; Potočnikova</t>
-  </si>
-  <si>
-    <t>Poljanska Rdeča hiša &lt;obe smeri&gt;</t>
-  </si>
-  <si>
-    <t>Erjavčeva žel. podvoz &lt;obe smeri&gt;</t>
-  </si>
-  <si>
-    <t>Škrabčeva &gt; Prešernova</t>
-  </si>
-  <si>
-    <t>Prešernova &gt; Škrabčeva</t>
-  </si>
-  <si>
     <t>Uršičev štradon &gt; Lahova pot</t>
   </si>
   <si>
     <t>Lahova pot &gt; Uršičev štradon</t>
   </si>
   <si>
-    <t>Obvozna c. Kleče &lt;obe smeri&gt;</t>
-  </si>
-  <si>
     <t>Avšičeva Kleče &lt;obe smeri&gt;</t>
   </si>
   <si>
     <t>Leskoškova &gt; AC priključek</t>
   </si>
   <si>
-    <t>Slovenska Nebotičnik &gt; Trnovo</t>
-  </si>
-  <si>
-    <t>Slovenska Nebotičnik &gt; Ajdovščina</t>
-  </si>
-  <si>
     <t>AC priključek &gt; Vodovodna</t>
   </si>
   <si>
@@ -729,18 +579,6 @@
   </si>
   <si>
     <t>AC priključek &gt; Baragova</t>
-  </si>
-  <si>
-    <t>Jurčkova 29 &lt;obe smeri&gt;</t>
-  </si>
-  <si>
-    <t>črna vas 29 &lt;obe smeri&gt;</t>
-  </si>
-  <si>
-    <t>Ižanska cesta &gt; Podpeč</t>
-  </si>
-  <si>
-    <t>Podpeč &gt; Ižanska cesta</t>
   </si>
   <si>
     <t>Gosposvetska Cerkev &gt; Ajdovščina</t>
@@ -861,8 +699,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51BB1FF8-44A5-441D-AF3A-F40843933BEF}" name="StevnaMestaMOL" displayName="StevnaMestaMOL" ref="A1:J66" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J66" xr:uid="{51BB1FF8-44A5-441D-AF3A-F40843933BEF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51BB1FF8-44A5-441D-AF3A-F40843933BEF}" name="StevnaMestaMOL" displayName="StevnaMestaMOL" ref="A1:J52" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J52" xr:uid="{51BB1FF8-44A5-441D-AF3A-F40843933BEF}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{215CD818-951B-4343-B82F-FDDBEB4B5DC6}" uniqueName="1" name="Y" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{E33FC27F-959D-411A-9D34-178B9C1B5C4C}" uniqueName="2" name="X" queryTableFieldId="2"/>
@@ -1178,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB46D298-D448-44F3-A3CA-D79033B6F9D1}">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,22 +1048,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1242,10 +1080,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -1257,7 +1095,7 @@
         <v>9</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J33" si="0">IF(G2="ni","NE","DA")</f>
+        <f t="shared" ref="J2:J28" si="0">IF(G2="ni","NE","DA")</f>
         <v>NE</v>
       </c>
     </row>
@@ -1275,10 +1113,10 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -1308,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1377,10 +1215,10 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="G6" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="H6" t="s">
         <v>8</v>
@@ -1410,10 +1248,10 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
@@ -1509,7 +1347,7 @@
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
@@ -1542,7 +1380,7 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="G11" t="s">
         <v>7</v>
@@ -1605,7 +1443,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
         <v>35</v>
@@ -1857,25 +1695,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>463794.76</v>
+        <v>458785.37</v>
       </c>
       <c r="B21">
-        <v>98338.41</v>
+        <v>99874.2</v>
       </c>
       <c r="C21">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D21" t="s">
         <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="H21" t="s">
         <v>8</v>
@@ -1885,27 +1723,27 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>DA</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>458785.37</v>
+        <v>459138</v>
       </c>
       <c r="B22">
-        <v>99874.2</v>
+        <v>100106.16</v>
       </c>
       <c r="C22">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" t="s">
         <v>62</v>
       </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
         <v>7</v>
@@ -1923,25 +1761,25 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>459138</v>
+        <v>457918.5</v>
       </c>
       <c r="B23">
-        <v>100106.16</v>
+        <v>101545.94</v>
       </c>
       <c r="C23">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
         <v>64</v>
       </c>
-      <c r="E23" t="s">
-        <v>65</v>
-      </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
-        <v>7</v>
+        <v>162</v>
       </c>
       <c r="H23" t="s">
         <v>8</v>
@@ -1951,30 +1789,30 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>NE</v>
+        <v>DA</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>457918.5</v>
+        <v>461435.4</v>
       </c>
       <c r="B24">
-        <v>101545.94</v>
+        <v>101076.59</v>
       </c>
       <c r="C24">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="G24" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="H24" t="s">
         <v>8</v>
@@ -1984,30 +1822,30 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>DA</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>462753.3</v>
+        <v>461436.15999999997</v>
       </c>
       <c r="B25">
-        <v>106822.9</v>
+        <v>101096.37</v>
       </c>
       <c r="C25">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="D25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="H25" t="s">
         <v>8</v>
@@ -2017,27 +1855,27 @@
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>DA</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>461435.4</v>
+        <v>461194.58</v>
       </c>
       <c r="B26">
-        <v>101076.59</v>
+        <v>102300.24</v>
       </c>
       <c r="C26">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="G26" t="s">
         <v>7</v>
@@ -2055,22 +1893,22 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>461436.15999999997</v>
+        <v>461340.98</v>
       </c>
       <c r="B27">
-        <v>101096.37</v>
+        <v>102114.64</v>
       </c>
       <c r="C27">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" t="s">
         <v>73</v>
-      </c>
-      <c r="E27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" t="s">
-        <v>206</v>
       </c>
       <c r="G27" t="s">
         <v>7</v>
@@ -2088,25 +1926,25 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>461194.58</v>
+        <v>468713.97</v>
       </c>
       <c r="B28">
-        <v>102300.24</v>
+        <v>101825.9</v>
       </c>
       <c r="C28">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
         <v>75</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>76</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>77</v>
-      </c>
-      <c r="G28" t="s">
-        <v>7</v>
       </c>
       <c r="H28" t="s">
         <v>8</v>
@@ -2116,18 +1954,18 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v>NE</v>
+        <v>DA</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>461340.98</v>
+        <v>464323.07</v>
       </c>
       <c r="B29">
-        <v>102114.64</v>
+        <v>101263.8</v>
       </c>
       <c r="C29">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="D29" t="s">
         <v>78</v>
@@ -2139,7 +1977,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s">
         <v>8</v>
@@ -2148,31 +1986,31 @@
         <v>9</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="0"/>
-        <v>NE</v>
+        <f t="shared" ref="J29:J49" si="1">IF(G29="ni","NE","DA")</f>
+        <v>DA</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>463042.12</v>
+        <v>461906.02</v>
       </c>
       <c r="B30">
-        <v>101113.76</v>
+        <v>102571.72</v>
       </c>
       <c r="C30">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s">
         <v>8</v>
@@ -2180,32 +2018,31 @@
       <c r="I30" t="s">
         <v>9</v>
       </c>
-      <c r="J30" t="str">
-        <f t="shared" si="0"/>
-        <v>DA</v>
+      <c r="J30" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>468713.97</v>
+        <v>461921.66</v>
       </c>
       <c r="B31">
-        <v>101825.9</v>
+        <v>102567.66</v>
       </c>
       <c r="C31">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s">
         <v>8</v>
@@ -2213,32 +2050,31 @@
       <c r="I31" t="s">
         <v>9</v>
       </c>
-      <c r="J31" t="str">
-        <f t="shared" si="0"/>
-        <v>DA</v>
+      <c r="J31" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>461997.43</v>
+        <v>462984.6</v>
       </c>
       <c r="B32">
-        <v>101322.37</v>
+        <v>100620.64</v>
       </c>
       <c r="C32">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s">
         <v>8</v>
@@ -2247,31 +2083,31 @@
         <v>9</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DA</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>462302.93</v>
+        <v>462173.31</v>
       </c>
       <c r="B33">
-        <v>101308.02</v>
+        <v>98591.62</v>
       </c>
       <c r="C33">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>209</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="G33" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="H33" t="s">
         <v>8</v>
@@ -2280,32 +2116,32 @@
         <v>9</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DA</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>462902.79</v>
+        <v>460969.37</v>
       </c>
       <c r="B34">
-        <v>102095.82</v>
+        <v>106454.27</v>
       </c>
       <c r="C34">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="D34" t="s">
         <v>94</v>
       </c>
       <c r="E34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" t="s">
         <v>95</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>96</v>
       </c>
-      <c r="G34" t="s">
-        <v>97</v>
-      </c>
       <c r="H34" t="s">
         <v>8</v>
       </c>
@@ -2313,31 +2149,31 @@
         <v>9</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" ref="J34:J64" si="1">IF(G34="ni","NE","DA")</f>
+        <f t="shared" si="1"/>
         <v>DA</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>464323.07</v>
+        <v>466684.22</v>
       </c>
       <c r="B35">
-        <v>101263.8</v>
+        <v>102566.14</v>
       </c>
       <c r="C35">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="F35" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="H35" t="s">
         <v>8</v>
@@ -2345,32 +2181,31 @@
       <c r="I35" t="s">
         <v>9</v>
       </c>
-      <c r="J35" t="str">
-        <f t="shared" si="1"/>
-        <v>DA</v>
+      <c r="J35" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>461906.02</v>
+        <v>467786.69</v>
       </c>
       <c r="B36">
-        <v>102571.72</v>
+        <v>102170</v>
       </c>
       <c r="C36">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G36" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H36" t="s">
         <v>8</v>
@@ -2385,25 +2220,25 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>461921.66</v>
+        <v>464411.32</v>
       </c>
       <c r="B37">
-        <v>102567.66</v>
+        <v>102254.58</v>
       </c>
       <c r="C37">
-        <v>1036</v>
+        <v>1046</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="H37" t="s">
         <v>8</v>
@@ -2413,30 +2248,30 @@
       </c>
       <c r="J37" t="str">
         <f t="shared" si="1"/>
-        <v>DA</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>460992.35</v>
+        <v>464420.08</v>
       </c>
       <c r="B38">
-        <v>101295.16</v>
+        <v>102261.43</v>
       </c>
       <c r="C38">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="G38" t="s">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="H38" t="s">
         <v>8</v>
@@ -2446,30 +2281,30 @@
       </c>
       <c r="J38" t="str">
         <f t="shared" si="1"/>
-        <v>DA</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>462984.6</v>
+        <v>461455.8</v>
       </c>
       <c r="B39">
-        <v>100620.64</v>
+        <v>104665.1</v>
       </c>
       <c r="C39">
-        <v>1038</v>
+        <v>1050</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F39" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="G39" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="H39" t="s">
         <v>8</v>
@@ -2484,25 +2319,25 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>461868.27</v>
+        <v>461902.74</v>
       </c>
       <c r="B40">
-        <v>99681.45</v>
+        <v>104866.3</v>
       </c>
       <c r="C40">
-        <v>1039</v>
+        <v>1051</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="F40" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="G40" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="H40" t="s">
         <v>8</v>
@@ -2517,25 +2352,25 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>462173.31</v>
+        <v>462851.77</v>
       </c>
       <c r="B41">
-        <v>98591.62</v>
+        <v>104342.57</v>
       </c>
       <c r="C41">
-        <v>1040</v>
+        <v>1052</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F41" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="G41" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="H41" t="s">
         <v>8</v>
@@ -2550,25 +2385,25 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>459814.15</v>
+        <v>461551.99</v>
       </c>
       <c r="B42">
-        <v>99548.79</v>
+        <v>101843.24</v>
       </c>
       <c r="C42">
-        <v>1041</v>
+        <v>1055</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="F42" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="G42" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="H42" t="s">
         <v>8</v>
@@ -2578,30 +2413,30 @@
       </c>
       <c r="J42" t="str">
         <f t="shared" si="1"/>
-        <v>DA</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>461335.85</v>
+        <v>461619.43</v>
       </c>
       <c r="B43">
-        <v>107163.31</v>
+        <v>101795.88</v>
       </c>
       <c r="C43">
-        <v>1042</v>
+        <v>1056</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="F43" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
       <c r="H43" t="s">
         <v>8</v>
@@ -2611,30 +2446,30 @@
       </c>
       <c r="J43" t="str">
         <f t="shared" si="1"/>
-        <v>DA</v>
+        <v>NE</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>460969.37</v>
+        <v>472989.82</v>
       </c>
       <c r="B44">
-        <v>106454.27</v>
+        <v>104031.91</v>
       </c>
       <c r="C44">
-        <v>1043</v>
+        <v>1057</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="F44" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G44" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H44" t="s">
         <v>8</v>
@@ -2649,25 +2484,25 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>466684.22</v>
+        <v>466087.31</v>
       </c>
       <c r="B45">
-        <v>102566.14</v>
+        <v>103891.86</v>
       </c>
       <c r="C45">
-        <v>1044</v>
+        <v>1058</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="F45" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="G45" t="s">
-        <v>217</v>
+        <v>122</v>
       </c>
       <c r="H45" t="s">
         <v>8</v>
@@ -2682,25 +2517,25 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>467786.69</v>
+        <v>457977.07</v>
       </c>
       <c r="B46">
-        <v>102170</v>
+        <v>103916.45</v>
       </c>
       <c r="C46">
-        <v>1045</v>
+        <v>1059</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F46" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G46" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H46" t="s">
         <v>8</v>
@@ -2715,25 +2550,25 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>464411.32</v>
+        <v>460116.12</v>
       </c>
       <c r="B47">
-        <v>102254.58</v>
+        <v>109590.79</v>
       </c>
       <c r="C47">
-        <v>1046</v>
+        <v>1060</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E47" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F47" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G47" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="H47" t="s">
         <v>8</v>
@@ -2743,30 +2578,30 @@
       </c>
       <c r="J47" t="str">
         <f t="shared" si="1"/>
-        <v>NE</v>
+        <v>DA</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>464420.08</v>
+        <v>457801.19</v>
       </c>
       <c r="B48">
-        <v>102261.43</v>
+        <v>108839.36</v>
       </c>
       <c r="C48">
-        <v>1047</v>
+        <v>1061</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F48" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="G48" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="H48" t="s">
         <v>8</v>
@@ -2776,30 +2611,30 @@
       </c>
       <c r="J48" t="str">
         <f t="shared" si="1"/>
-        <v>NE</v>
+        <v>DA</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>461603.29</v>
+        <v>462103.13</v>
       </c>
       <c r="B49">
-        <v>101622.03</v>
+        <v>101020.58</v>
       </c>
       <c r="C49">
-        <v>1048</v>
+        <v>1062</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="F49" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G49" t="s">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="H49" t="s">
         <v>8</v>
@@ -2809,30 +2644,30 @@
       </c>
       <c r="J49" t="str">
         <f t="shared" si="1"/>
-        <v>NE</v>
+        <v>DA</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>461618.19</v>
+        <v>466641.17</v>
       </c>
       <c r="B50">
-        <v>101618.84</v>
+        <v>102574.14</v>
       </c>
       <c r="C50">
-        <v>1049</v>
+        <v>1063</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E50" t="s">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="F50" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G50" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="H50" t="s">
         <v>8</v>
@@ -2840,32 +2675,31 @@
       <c r="I50" t="s">
         <v>9</v>
       </c>
-      <c r="J50" t="str">
-        <f t="shared" si="1"/>
-        <v>NE</v>
+      <c r="J50" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>461455.8</v>
+        <v>460765.9</v>
       </c>
       <c r="B51">
-        <v>104665.1</v>
+        <v>100900.64</v>
       </c>
       <c r="C51">
-        <v>1050</v>
+        <v>1064</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="F51" t="s">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="G51" t="s">
-        <v>221</v>
+        <v>9</v>
       </c>
       <c r="H51" t="s">
         <v>8</v>
@@ -2873,32 +2707,31 @@
       <c r="I51" t="s">
         <v>9</v>
       </c>
-      <c r="J51" t="str">
-        <f t="shared" si="1"/>
-        <v>DA</v>
+      <c r="J51" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>461902.74</v>
+        <v>460770.87</v>
       </c>
       <c r="B52">
-        <v>104866.3</v>
+        <v>100890.89</v>
       </c>
       <c r="C52">
-        <v>1051</v>
+        <v>1065</v>
       </c>
       <c r="D52" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E52" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="F52" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="G52" t="s">
-        <v>224</v>
+        <v>9</v>
       </c>
       <c r="H52" t="s">
         <v>8</v>
@@ -2906,469 +2739,8 @@
       <c r="I52" t="s">
         <v>9</v>
       </c>
-      <c r="J52" t="str">
-        <f t="shared" si="1"/>
-        <v>DA</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>462851.77</v>
-      </c>
-      <c r="B53">
-        <v>104342.57</v>
-      </c>
-      <c r="C53">
-        <v>1052</v>
-      </c>
-      <c r="D53" t="s">
-        <v>146</v>
-      </c>
-      <c r="E53" t="s">
-        <v>147</v>
-      </c>
-      <c r="F53" t="s">
-        <v>225</v>
-      </c>
-      <c r="G53" t="s">
-        <v>226</v>
-      </c>
-      <c r="H53" t="s">
-        <v>8</v>
-      </c>
-      <c r="I53" t="s">
-        <v>9</v>
-      </c>
-      <c r="J53" t="str">
-        <f t="shared" si="1"/>
-        <v>DA</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>462707.97</v>
-      </c>
-      <c r="B54">
-        <v>99114.2</v>
-      </c>
-      <c r="C54">
-        <v>1053</v>
-      </c>
-      <c r="D54" t="s">
-        <v>148</v>
-      </c>
-      <c r="E54" t="s">
-        <v>227</v>
-      </c>
-      <c r="F54" t="s">
-        <v>149</v>
-      </c>
-      <c r="G54" t="s">
-        <v>150</v>
-      </c>
-      <c r="H54" t="s">
-        <v>8</v>
-      </c>
-      <c r="I54" t="s">
-        <v>9</v>
-      </c>
-      <c r="J54" t="str">
-        <f t="shared" si="1"/>
-        <v>DA</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>462056.95</v>
-      </c>
-      <c r="B55">
-        <v>97196.51</v>
-      </c>
-      <c r="C55">
-        <v>1054</v>
-      </c>
-      <c r="D55" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" t="s">
-        <v>228</v>
-      </c>
-      <c r="F55" t="s">
-        <v>229</v>
-      </c>
-      <c r="G55" t="s">
-        <v>230</v>
-      </c>
-      <c r="H55" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" t="s">
-        <v>9</v>
-      </c>
-      <c r="J55" t="str">
-        <f t="shared" si="1"/>
-        <v>DA</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>461551.99</v>
-      </c>
-      <c r="B56">
-        <v>101843.24</v>
-      </c>
-      <c r="C56">
-        <v>1055</v>
-      </c>
-      <c r="D56" t="s">
-        <v>152</v>
-      </c>
-      <c r="E56" t="s">
-        <v>231</v>
-      </c>
-      <c r="F56" t="s">
-        <v>232</v>
-      </c>
-      <c r="G56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" t="s">
-        <v>9</v>
-      </c>
-      <c r="J56" t="str">
-        <f t="shared" si="1"/>
-        <v>NE</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>461619.43</v>
-      </c>
-      <c r="B57">
-        <v>101795.88</v>
-      </c>
-      <c r="C57">
-        <v>1056</v>
-      </c>
-      <c r="D57" t="s">
-        <v>153</v>
-      </c>
-      <c r="E57" t="s">
-        <v>154</v>
-      </c>
-      <c r="F57" t="s">
-        <v>233</v>
-      </c>
-      <c r="G57" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" t="s">
-        <v>8</v>
-      </c>
-      <c r="I57" t="s">
-        <v>9</v>
-      </c>
-      <c r="J57" t="str">
-        <f t="shared" si="1"/>
-        <v>NE</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>472989.82</v>
-      </c>
-      <c r="B58">
-        <v>104031.91</v>
-      </c>
-      <c r="C58">
-        <v>1057</v>
-      </c>
-      <c r="D58" t="s">
-        <v>155</v>
-      </c>
-      <c r="E58" t="s">
-        <v>156</v>
-      </c>
-      <c r="F58" t="s">
-        <v>157</v>
-      </c>
-      <c r="G58" t="s">
-        <v>158</v>
-      </c>
-      <c r="H58" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" t="s">
-        <v>9</v>
-      </c>
-      <c r="J58" t="str">
-        <f t="shared" si="1"/>
-        <v>DA</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>466087.31</v>
-      </c>
-      <c r="B59">
-        <v>103891.86</v>
-      </c>
-      <c r="C59">
-        <v>1058</v>
-      </c>
-      <c r="D59" t="s">
-        <v>159</v>
-      </c>
-      <c r="E59" t="s">
-        <v>160</v>
-      </c>
-      <c r="F59" t="s">
-        <v>161</v>
-      </c>
-      <c r="G59" t="s">
-        <v>162</v>
-      </c>
-      <c r="H59" t="s">
-        <v>8</v>
-      </c>
-      <c r="I59" t="s">
-        <v>9</v>
-      </c>
-      <c r="J59" t="str">
-        <f t="shared" si="1"/>
-        <v>DA</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>457977.07</v>
-      </c>
-      <c r="B60">
-        <v>103916.45</v>
-      </c>
-      <c r="C60">
-        <v>1059</v>
-      </c>
-      <c r="D60" t="s">
-        <v>163</v>
-      </c>
-      <c r="E60" t="s">
-        <v>164</v>
-      </c>
-      <c r="F60" t="s">
-        <v>165</v>
-      </c>
-      <c r="G60" t="s">
-        <v>166</v>
-      </c>
-      <c r="H60" t="s">
-        <v>8</v>
-      </c>
-      <c r="I60" t="s">
-        <v>9</v>
-      </c>
-      <c r="J60" t="str">
-        <f t="shared" si="1"/>
-        <v>DA</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>460116.12</v>
-      </c>
-      <c r="B61">
-        <v>109590.79</v>
-      </c>
-      <c r="C61">
-        <v>1060</v>
-      </c>
-      <c r="D61" t="s">
-        <v>167</v>
-      </c>
-      <c r="E61" t="s">
-        <v>168</v>
-      </c>
-      <c r="F61" t="s">
-        <v>169</v>
-      </c>
-      <c r="G61" t="s">
-        <v>170</v>
-      </c>
-      <c r="H61" t="s">
-        <v>8</v>
-      </c>
-      <c r="I61" t="s">
-        <v>9</v>
-      </c>
-      <c r="J61" t="str">
-        <f t="shared" si="1"/>
-        <v>DA</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>457801.19</v>
-      </c>
-      <c r="B62">
-        <v>108839.36</v>
-      </c>
-      <c r="C62">
-        <v>1061</v>
-      </c>
-      <c r="D62" t="s">
-        <v>171</v>
-      </c>
-      <c r="E62" t="s">
-        <v>172</v>
-      </c>
-      <c r="F62" t="s">
-        <v>234</v>
-      </c>
-      <c r="G62" t="s">
-        <v>235</v>
-      </c>
-      <c r="H62" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" t="s">
-        <v>9</v>
-      </c>
-      <c r="J62" t="str">
-        <f t="shared" si="1"/>
-        <v>DA</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>462103.13</v>
-      </c>
-      <c r="B63">
-        <v>101020.58</v>
-      </c>
-      <c r="C63">
-        <v>1062</v>
-      </c>
-      <c r="D63" t="s">
-        <v>173</v>
-      </c>
-      <c r="E63" t="s">
-        <v>174</v>
-      </c>
-      <c r="F63" t="s">
-        <v>175</v>
-      </c>
-      <c r="G63" t="s">
-        <v>176</v>
-      </c>
-      <c r="H63" t="s">
-        <v>8</v>
-      </c>
-      <c r="I63" t="s">
-        <v>9</v>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="1"/>
-        <v>DA</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>466641.17</v>
-      </c>
-      <c r="B64">
-        <v>102574.14</v>
-      </c>
-      <c r="C64">
-        <v>1063</v>
-      </c>
-      <c r="D64" t="s">
-        <v>177</v>
-      </c>
-      <c r="E64" t="s">
-        <v>178</v>
-      </c>
-      <c r="F64" t="s">
-        <v>178</v>
-      </c>
-      <c r="G64" t="s">
-        <v>178</v>
-      </c>
-      <c r="H64" t="s">
-        <v>8</v>
-      </c>
-      <c r="I64" t="s">
-        <v>9</v>
-      </c>
-      <c r="J64" t="str">
-        <f t="shared" si="1"/>
-        <v>DA</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>460765.9</v>
-      </c>
-      <c r="B65">
-        <v>100900.64</v>
-      </c>
-      <c r="C65">
-        <v>1064</v>
-      </c>
-      <c r="D65" t="s">
-        <v>179</v>
-      </c>
-      <c r="E65" t="s">
-        <v>236</v>
-      </c>
-      <c r="F65" t="s">
-        <v>180</v>
-      </c>
-      <c r="G65" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" t="s">
-        <v>8</v>
-      </c>
-      <c r="I65" t="s">
-        <v>9</v>
-      </c>
-      <c r="J65" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>460770.87</v>
-      </c>
-      <c r="B66">
-        <v>100890.89</v>
-      </c>
-      <c r="C66">
-        <v>1065</v>
-      </c>
-      <c r="D66" t="s">
-        <v>181</v>
-      </c>
-      <c r="E66" t="s">
-        <v>182</v>
-      </c>
-      <c r="F66" t="s">
-        <v>183</v>
-      </c>
-      <c r="G66" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" t="s">
-        <v>8</v>
-      </c>
-      <c r="I66" t="s">
-        <v>9</v>
-      </c>
-      <c r="J66" t="s">
-        <v>238</v>
+      <c r="J52" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
